--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084967.651894209</v>
+        <v>2084967.651894208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684363.167659073</v>
+        <v>1398804.974660973</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>219.9794999449975</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>25.73468253713836</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>47.36189168600487</v>
+        <v>3.888834254466539</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.253847544129632</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>214.9157639647052</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40.34437900655318</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>5.087923851180109</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>317.3059494613269</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.6929566097332</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>207.0981666368542</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>197.9218972121922</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7158455815536</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="14">
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>121.9221813633449</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>53.7724082729265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>145.4322165318416</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.4131904275024</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>147.7402507536361</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>67.90088782653213</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>134.4910295281372</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642765</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>118.4898845065078</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.8524764360002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.00387210404209</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.14260159749659</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>137.0423411920734</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>42.67982042360411</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>53.68612347276148</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>109.7158546988682</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896929</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>82.76481347543425</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>135.0282639333626</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>183.3496385038744</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1490.978909181595</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.016392241183</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>763.7506936344325</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>763.7506936344325</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>756.8051928852291</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="3">
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1039.703785687808</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>670.7412687473968</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>670.7412687473968</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>284.9530161491526</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.01781586839</v>
+        <v>1426.30362575193</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.6310627346887</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>94.69487980678181</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>94.69487980678181</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>94.69487980678181</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>94.69487980678181</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>94.69487980678181</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>722.9896671850402</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>722.9896671850402</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>722.9896671850402</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="Y7" t="n">
-        <v>263.6310627346887</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>799.3633507333275</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>799.3633507333275</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>799.3633507333275</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>1185.963190797449</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.2078759112907</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W10" t="n">
-        <v>528.2078759112907</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X10" t="n">
-        <v>528.2078759112907</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y10" t="n">
-        <v>528.2078759112907</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047984</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731476</v>
+        <v>711.1141612171748</v>
       </c>
       <c r="M12" t="n">
-        <v>738.0704661731476</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>1542.482044437298</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.8460027287427</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>524.8400981009108</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>874.6385818722729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>874.6385818722729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.8460027287427</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>686.8941369866053</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1455.262283379067</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1785.124911043099</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1375.762552009069</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1151.977136798575</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>862.8484980121333</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>862.8484980121333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>862.8484980121333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>634.8589471141159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.49815909844</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>2734.117743843443</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>2734.117743843443</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="M18" t="n">
-        <v>3502.485890235904</v>
+        <v>981.7486957371223</v>
       </c>
       <c r="N18" t="n">
-        <v>4306.897468500055</v>
+        <v>1786.160274001273</v>
       </c>
       <c r="O18" t="n">
-        <v>4586.437533718752</v>
+        <v>2065.70033921997</v>
       </c>
       <c r="P18" t="n">
-        <v>4791.460014500962</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>620.2426249169047</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="C19" t="n">
-        <v>565.9270610048577</v>
+        <v>3868.009222566826</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>3868.009222566826</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>3868.009222566826</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>3868.009222566826</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909233</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227915</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169047</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="W19" t="n">
-        <v>620.2426249169047</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="X19" t="n">
-        <v>620.2426249169047</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="Y19" t="n">
-        <v>620.2426249169047</v>
+        <v>4036.945405494733</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,25 +5741,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,13 +5768,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,10 +5826,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
@@ -5838,19 +5838,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="M21" t="n">
-        <v>828.4426798345003</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.854258098651</v>
+        <v>1312.518938568949</v>
       </c>
       <c r="O21" t="n">
-        <v>2135.190598349773</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123426</v>
+        <v>3796.266898524763</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4711.621996495469</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>4487.836581284975</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488382</v>
+        <v>4198.707942498533</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488382</v>
+        <v>4198.707942498533</v>
       </c>
       <c r="W22" t="n">
-        <v>609.3753482118775</v>
+        <v>4198.707942498533</v>
       </c>
       <c r="X22" t="n">
-        <v>381.3857973138602</v>
+        <v>4198.707942498533</v>
       </c>
       <c r="Y22" t="n">
-        <v>381.3857973138602</v>
+        <v>3977.915363355003</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K24" t="n">
-        <v>2786.879505108311</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L24" t="n">
-        <v>3257.174975824938</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="M24" t="n">
-        <v>3257.174975824938</v>
+        <v>3219.029763375278</v>
       </c>
       <c r="N24" t="n">
-        <v>3601.695631462556</v>
+        <v>3671.090189975887</v>
       </c>
       <c r="O24" t="n">
-        <v>4271.159392765216</v>
+        <v>4340.553951278546</v>
       </c>
       <c r="P24" t="n">
-        <v>4791.460014500963</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>531.3977182706318</v>
+        <v>4503.139178847516</v>
       </c>
       <c r="C25" t="n">
-        <v>531.3977182706318</v>
+        <v>4334.202995919609</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947356</v>
+        <v>4184.086356507273</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>4036.17326292488</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>3889.28331542697</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.10799374679</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294734</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706318</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="X25" t="n">
-        <v>531.3977182706318</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="Y25" t="n">
-        <v>531.3977182706318</v>
+        <v>4571.725934227851</v>
       </c>
     </row>
     <row r="26">
@@ -6209,31 +6209,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>3114.716431007691</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>3436.0418410801</v>
       </c>
       <c r="N27" t="n">
-        <v>2234.893232091767</v>
+        <v>3765.904468744133</v>
       </c>
       <c r="O27" t="n">
-        <v>2483.646646175729</v>
+        <v>4045.44453396283</v>
       </c>
       <c r="P27" t="n">
-        <v>2483.646646175729</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.8631874464246</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="C28" t="n">
-        <v>376.9270045185177</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185177</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380589</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625201</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.43553563633</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403513</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.54638743106</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436457</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.02113004214</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>4571.725934227849</v>
       </c>
       <c r="V28" t="n">
-        <v>675.007103038344</v>
+        <v>4317.041446021963</v>
       </c>
       <c r="W28" t="n">
-        <v>675.007103038344</v>
+        <v>4027.624275985002</v>
       </c>
       <c r="X28" t="n">
-        <v>675.007103038344</v>
+        <v>3799.634725086985</v>
       </c>
       <c r="Y28" t="n">
-        <v>545.8631874464246</v>
+        <v>3578.842145943455</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,16 +6482,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>907.5692633231354</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
-        <v>1214.889396603097</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="N30" t="n">
-        <v>1559.410052240715</v>
+        <v>1618.188259878082</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1897.728325096779</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>755.183133481126</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>657.1994242851239</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>507.0827848727882</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6646,25 +6646,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W31" t="n">
-        <v>755.183133481126</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X31" t="n">
-        <v>755.183133481126</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>755.183133481126</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>138.7081686256434</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>752.6052383825321</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M33" t="n">
-        <v>1082.02560600166</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1886.437184265811</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2135.190598349773</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>524.5778132641556</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C34" t="n">
-        <v>355.6416303362487</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D34" t="n">
-        <v>355.6416303362487</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
         <v>208.7516828383384</v>
@@ -6853,7 +6853,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1462.408592176593</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1262.488582092145</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1262.488582092145</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>973.359943305703</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>973.359943305703</v>
+        <v>825.7091345600652</v>
       </c>
       <c r="W34" t="n">
-        <v>973.359943305703</v>
+        <v>825.7091345600652</v>
       </c>
       <c r="X34" t="n">
-        <v>745.3703924076857</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="Y34" t="n">
-        <v>524.5778132641556</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,19 +6932,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6956,28 +6956,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>198.6865418035158</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M36" t="n">
-        <v>967.0546881959772</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.466266460128</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>1875.185830712708</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4187.313048421694</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C37" t="n">
-        <v>4187.313048421694</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D37" t="n">
-        <v>4037.196409009357</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>4817.74364329348</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>4817.74364329348</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>4589.754092395463</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>4368.961513251933</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,16 +7166,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>373.5080755174547</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>987.4051452743433</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.740464804045</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N39" t="n">
         <v>2112.152043068196</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>3941.006808105546</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>3941.006808105546</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>3941.006808105546</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3793.093714523152</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W40" t="n">
-        <v>564.1830073829216</v>
+        <v>4571.437402977333</v>
       </c>
       <c r="X40" t="n">
-        <v>564.1830073829216</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.1830073829216</v>
+        <v>4122.655272935785</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8589595388348</v>
+        <v>1109.63892377848</v>
       </c>
       <c r="M42" t="n">
-        <v>1009.263896089485</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N42" t="n">
-        <v>1353.784551727103</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O42" t="n">
         <v>2023.248313029762</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3879.86772021712</v>
+        <v>552.6620995918039</v>
       </c>
       <c r="C43" t="n">
-        <v>3710.931537289213</v>
+        <v>383.725916663897</v>
       </c>
       <c r="D43" t="n">
-        <v>3627.330715596855</v>
+        <v>233.6092772515613</v>
       </c>
       <c r="E43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4571.72593422785</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>4571.72593422785</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>4282.30876419089</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X43" t="n">
-        <v>4282.30876419089</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y43" t="n">
-        <v>4061.51618504736</v>
+        <v>734.3105644220436</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,13 +7634,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,16 +7649,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>630.8194457809853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1399.187592173447</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N45" t="n">
-        <v>1743.708247811065</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="O45" t="n">
-        <v>2023.248313029762</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P45" t="n">
-        <v>2543.548934765509</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4039.3999548393</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4039.3999548393</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4475.732907875426</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4221.04841966954</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4221.04841966954</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4221.04841966954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4221.04841966954</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>219.7518763252708</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>47.58712723327764</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>225.0467424569952</v>
+        <v>218.2873358959909</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>225.788225060771</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>123.4321201379553</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>14.14674423479624</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10200,13 +10200,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>227.9932143246826</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,10 +10428,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>241.048774065965</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>240.0260247153604</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>83.92404370776586</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>170.6734326339623</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>39.53097551707425</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.99862862025834</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>113.4744128257013</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>21.06135193153602</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.41878975443487</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>50.18055922996717</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>111.9310923554052</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>14.12444349007518</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542946</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.73217691609462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>70.24294899458575</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.82175080629622</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238318</v>
+        <v>115.0953021317546</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>30.12558851170023</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>209.4578229002239</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>91.73492455016977</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>176.8071436377228</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.8506595427781</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>11.40569871320656</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25843,10 +25843,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,19 +26074,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.887713894703</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="15">
@@ -26314,31 +26314,31 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590219</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="I2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590215</v>
-      </c>
       <c r="K2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
@@ -26353,7 +26353,7 @@
         <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590219</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758692</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759235</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26522,46 +26522,46 @@
         <v>-278208.9460467889</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677563</v>
+        <v>311758.9331677561</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677559</v>
+        <v>311758.9331677558</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571665</v>
+        <v>-109597.3784571672</v>
       </c>
       <c r="F6" t="n">
+        <v>415562.6580197293</v>
+      </c>
+      <c r="G6" t="n">
+        <v>415562.6580197291</v>
+      </c>
+      <c r="H6" t="n">
+        <v>415562.658019729</v>
+      </c>
+      <c r="I6" t="n">
+        <v>415562.6580197291</v>
+      </c>
+      <c r="J6" t="n">
+        <v>239139.4388271363</v>
+      </c>
+      <c r="K6" t="n">
         <v>415562.6580197292</v>
-      </c>
-      <c r="G6" t="n">
-        <v>415562.6580197293</v>
-      </c>
-      <c r="H6" t="n">
-        <v>415562.6580197291</v>
-      </c>
-      <c r="I6" t="n">
-        <v>415562.658019729</v>
-      </c>
-      <c r="J6" t="n">
-        <v>239139.4388271361</v>
-      </c>
-      <c r="K6" t="n">
-        <v>415562.658019729</v>
       </c>
       <c r="L6" t="n">
         <v>415562.6580197291</v>
       </c>
       <c r="M6" t="n">
-        <v>280761.6427858921</v>
+        <v>280761.642785892</v>
       </c>
       <c r="N6" t="n">
         <v>415562.6580197291</v>
       </c>
       <c r="O6" t="n">
-        <v>415562.6580197292</v>
+        <v>415562.6580197291</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.6580197292</v>
+        <v>415562.6580197294</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>193.8046700757974</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>225.4894849711509</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>239.1611066505861</v>
+        <v>282.6341640821245</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.4799941193509</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>191.9602817770062</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>115.826509835242</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>207.0576150988388</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>64.62442061093486</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.5449820463204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>79.18370760512354</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>88.60110112439881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29964,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -31142,10 +31142,10 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>17.09899778122906</v>
+        <v>301.7970625436783</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,28 +32075,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>396.5537155454428</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32227,46 +32227,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>277.0323481688542</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,7 +32558,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
@@ -32567,7 +32567,7 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32792,13 +32792,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,7 +32807,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -33023,10 +33023,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33035,19 +33035,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.24474816876796</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33202,7 +33202,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
@@ -33266,16 +33266,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>3.209691916793304</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33500,22 +33500,22 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>331.8073893088567</v>
       </c>
       <c r="M33" t="n">
-        <v>9.176816251945809</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33734,28 +33734,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33910,13 +33910,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>152.4580040397288</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>384.2467489891734</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446501</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34211,19 +34211,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>207.3204600535047</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>382.9216445379547</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34469,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>268.3650726135141</v>
+        <v>553.0631373759634</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>469.009581281295</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>403.6561462070738</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>254.6805421648023</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>507.4104446981033</v>
+        <v>500.651038137099</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>475.0459300167952</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>456.6266935359682</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178376</v>
@@ -36455,7 +36455,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>324.5711212852624</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>141.3402618185955</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187023</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36914,19 +36914,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>235.4956574403783</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>435.0866292562072</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37148,28 +37148,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>193.2530095289825</v>
       </c>
       <c r="M33" t="n">
-        <v>332.7478460799274</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>102.4943942860908</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>447.1194396468851</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>279.0818020779484</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>732.2474112493936</v>
       </c>
       <c r="O39" t="n">
         <v>251.2660748322851</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>439.6064255770897</v>
       </c>
       <c r="M42" t="n">
-        <v>394.3484207582321</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>244.3672647580805</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>503.8680060319751</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084967.651894208</v>
+        <v>2160497.321559013</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1398804.974660973</v>
+        <v>531733.8719789208</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>25.73468253713836</v>
+        <v>171.789906059415</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -789,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -826,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>234.5419316221696</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>3.888834254466539</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>214.9157639647052</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>161.2000559090907</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>49.12877922542958</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5.087923851180109</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>317.3059494613269</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>356.597929661531</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>115.9486844368455</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>207.0981666368542</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>136.9575509524584</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>5.562624396424889</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>145.4322165318416</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2050,19 +2052,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>195.2051601944693</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>147.7402507536361</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>220.2803460863051</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.90088782653213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642765</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>157.2425576766703</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.4898845065078</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
-        <v>155.8385935972304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V34" t="n">
-        <v>137.0423411920734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.45300511654406</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>53.68612347276148</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896929</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>135.0282639333626</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837.1179892781316</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2671.15446219283</v>
+        <v>2468.595243912943</v>
       </c>
       <c r="V2" t="n">
-        <v>2340.091574849259</v>
+        <v>2137.532356569372</v>
       </c>
       <c r="W2" t="n">
-        <v>1987.322919579145</v>
+        <v>1784.763701299258</v>
       </c>
       <c r="X2" t="n">
-        <v>1613.857161318065</v>
+        <v>1784.763701299258</v>
       </c>
       <c r="Y2" t="n">
-        <v>1223.717829342253</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="V4" t="n">
-        <v>352.67413830922</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1039.703785687808</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C5" t="n">
-        <v>670.7412687473968</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>670.7412687473968</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>284.9530161491526</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.442957727742</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="Y5" t="n">
-        <v>1426.30362575193</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>296.1144832717764</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>149.2245357738661</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>722.9896671850402</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>722.9896671850402</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>722.9896671850402</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>468.3051789791533</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>468.3051789791533</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X7" t="n">
-        <v>468.3051789791533</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y7" t="n">
-        <v>247.5125998356232</v>
+        <v>444.0275768541695</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>799.3633507333275</v>
+        <v>1705.823007113086</v>
       </c>
       <c r="C8" t="n">
-        <v>799.3633507333275</v>
+        <v>1336.860490172674</v>
       </c>
       <c r="D8" t="n">
-        <v>799.3633507333275</v>
+        <v>978.5947915659237</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>978.5947915659237</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>567.6088867763162</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1576.102522773261</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y8" t="n">
-        <v>1185.963190797449</v>
+        <v>2092.422847177208</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027575</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>581.5921817905153</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>354.283994459117</v>
       </c>
       <c r="U10" t="n">
-        <v>370.7922583306645</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>370.7922583306645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>370.7922583306645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>370.7922583306645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171748</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N12" t="n">
-        <v>1824.002963247254</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5263,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,16 +5533,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5580,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>674.4285624571608</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M18" t="n">
-        <v>981.7486957371223</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N18" t="n">
-        <v>1786.160274001273</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O18" t="n">
-        <v>2065.70033921997</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4036.945405494733</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="C19" t="n">
-        <v>3868.009222566826</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="D19" t="n">
-        <v>3868.009222566826</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E19" t="n">
-        <v>3868.009222566826</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F19" t="n">
-        <v>3868.009222566826</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.859459491669</v>
+        <v>1190.664237630365</v>
       </c>
       <c r="T19" t="n">
-        <v>4326.074044281175</v>
+        <v>966.8788224198709</v>
       </c>
       <c r="U19" t="n">
-        <v>4036.945405494733</v>
+        <v>966.8788224198709</v>
       </c>
       <c r="V19" t="n">
-        <v>4036.945405494733</v>
+        <v>966.8788224198709</v>
       </c>
       <c r="W19" t="n">
-        <v>4036.945405494733</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="X19" t="n">
-        <v>4036.945405494733</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="Y19" t="n">
-        <v>4036.945405494733</v>
+        <v>677.4616523829103</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L21" t="n">
-        <v>508.1073603047985</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M21" t="n">
-        <v>508.1073603047985</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N21" t="n">
-        <v>1312.518938568949</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3796.266898524763</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C22" t="n">
-        <v>3627.330715596856</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596856</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596856</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596856</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
         <v>4411.546387431057</v>
@@ -5932,28 +5934,28 @@
         <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S22" t="n">
-        <v>4711.621996495469</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T22" t="n">
-        <v>4487.836581284975</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>4198.707942498533</v>
+        <v>4103.568644194</v>
       </c>
       <c r="V22" t="n">
-        <v>4198.707942498533</v>
+        <v>3848.884155988113</v>
       </c>
       <c r="W22" t="n">
-        <v>4198.707942498533</v>
+        <v>3848.884155988113</v>
       </c>
       <c r="X22" t="n">
-        <v>4198.707942498533</v>
+        <v>3848.884155988113</v>
       </c>
       <c r="Y22" t="n">
-        <v>3977.915363355003</v>
+        <v>3628.091576844583</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095317</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L24" t="n">
-        <v>2911.709630095317</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>3219.029763375278</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="N24" t="n">
-        <v>3671.090189975887</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O24" t="n">
-        <v>4340.553951278546</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4860.854573014293</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4503.139178847516</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>4334.202995919609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>4184.086356507273</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.17326292488</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.28331542697</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.10799374679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294734</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.725934227851</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4571.725934227851</v>
+        <v>955.1031435655744</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.725934227851</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="X25" t="n">
-        <v>4571.725934227851</v>
+        <v>437.6964226305965</v>
       </c>
       <c r="Y25" t="n">
-        <v>4571.725934227851</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6221,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2500.819361250802</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3114.716431007691</v>
+        <v>1009.893253135416</v>
       </c>
       <c r="M27" t="n">
-        <v>3436.0418410801</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N27" t="n">
-        <v>3765.904468744133</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.44453396283</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698577</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.43553563633</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403513</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.54638743106</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436457</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.02113004214</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.725934227849</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V28" t="n">
-        <v>4317.041446021963</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W28" t="n">
-        <v>4027.624275985002</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X28" t="n">
-        <v>3799.634725086985</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y28" t="n">
-        <v>3578.842145943455</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.325632214049</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M30" t="n">
-        <v>1288.325632214049</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="N30" t="n">
-        <v>1618.188259878082</v>
+        <v>1515.525739481325</v>
       </c>
       <c r="O30" t="n">
-        <v>1897.728325096779</v>
+        <v>2184.989500783985</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1341.503549752619</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6695,37 +6697,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>479.098332261396</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1298.861305376241</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>825.7091345600652</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>825.7091345600652</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>597.7195836620479</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,37 +6949,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1595.645765494011</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N36" t="n">
-        <v>1595.645765494011</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="O36" t="n">
-        <v>1875.185830712708</v>
+        <v>1957.789393516709</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.9038434870658</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>216.9038434870658</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1387.227105931296</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="N39" t="n">
-        <v>2112.152043068196</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="O39" t="n">
-        <v>2360.905457152158</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3941.006808105546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3941.006808105546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3941.006808105546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3793.093714523152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014293</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014293</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4571.437402977333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4122.655272935785</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L42" t="n">
-        <v>1109.63892377848</v>
+        <v>773.5483822357312</v>
       </c>
       <c r="M42" t="n">
-        <v>1429.974243308181</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N42" t="n">
-        <v>1774.494898945799</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>2023.248313029762</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2543.548934765509</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7524,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.6620995918039</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>383.725916663897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>233.6092772515613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>955.1031435655738</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.3105644220436</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7625,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M45" t="n">
-        <v>865.5852378527472</v>
+        <v>887.0301175853479</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.414563824403</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O45" t="n">
-        <v>2033.878325127062</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,16 +9020,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9248,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>232.8639348725807</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>47.58712723327764</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>218.2873358959909</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>123.4321201379553</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>14.14674423479624</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>227.9932143246826</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10677,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>240.0260247153604</v>
+        <v>156.5880824890967</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10911,10 +10913,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>170.6734326339623</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>8.463497070472869</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>192.3581855871784</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>21.06135193153602</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.715649789133977</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.18055922996717</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>65.95700631227223</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.9310923554052</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>61.3420956754245</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.34209567542946</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>51.56266414401837</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
-        <v>96.29904972659759</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V34" t="n">
-        <v>115.0953021317546</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>30.12558851170023</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>116.0405633468335</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>91.73492455016977</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>11.40569871320656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590219</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26427,7 +26429,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26436,28 +26438,28 @@
         <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758692</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905759235</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758696</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467889</v>
+        <v>-278208.9460467891</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677561</v>
+        <v>311758.9331677558</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677558</v>
+        <v>311758.9331677557</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571672</v>
+        <v>-109597.378457167</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.6580197293</v>
+        <v>415562.6580197291</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.6580197291</v>
+        <v>415562.6580197292</v>
       </c>
       <c r="H6" t="n">
         <v>415562.658019729</v>
@@ -26543,10 +26545,10 @@
         <v>415562.6580197291</v>
       </c>
       <c r="J6" t="n">
-        <v>239139.4388271363</v>
+        <v>239139.4388271365</v>
       </c>
       <c r="K6" t="n">
-        <v>415562.6580197292</v>
+        <v>415562.6580197293</v>
       </c>
       <c r="L6" t="n">
         <v>415562.6580197291</v>
@@ -26561,7 +26563,7 @@
         <v>415562.6580197291</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.6580197294</v>
+        <v>415562.6580197291</v>
       </c>
     </row>
   </sheetData>
@@ -26738,43 +26740,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>225.4894849711509</v>
+        <v>79.43426144887428</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>51.73994261980809</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>282.6341640821245</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>191.9602817770062</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>208.5310447693784</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>118.1810230336213</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>207.0576150988388</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>64.62442061093486</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>57.18624035926399</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>96.19685451317343</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>79.18370760512354</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31145,10 +31147,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31837,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>138.0254025558048</v>
       </c>
       <c r="O12" t="n">
-        <v>301.7970625436783</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>396.5537155454428</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>394.9841349460419</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>422.5825992329737</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>177.0909998440047</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>106.5672573837439</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,10 +33262,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
@@ -33272,13 +33274,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>278.8982329460875</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>331.8073893088567</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>143.4891561328554</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,7 +33745,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>429.5124983669802</v>
       </c>
       <c r="N39" t="n">
-        <v>384.2467489891734</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446501</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,16 +34210,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>207.3204600535047</v>
+        <v>282.8757401562968</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34226,19 +34228,19 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,16 +34447,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>179.5948933183439</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
@@ -34463,13 +34465,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>486.026064816025</v>
       </c>
       <c r="O12" t="n">
-        <v>553.0631373759634</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>742.9847972062621</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>566.0585082705936</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>254.6805421648023</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>770.583261493194</v>
       </c>
       <c r="O21" t="n">
-        <v>500.651038137099</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>456.6266935359682</v>
+        <v>525.091662104225</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>338.8532229073289</v>
       </c>
       <c r="M27" t="n">
-        <v>324.5711212852624</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187023</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36920,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>435.0866292562072</v>
+        <v>144.9238255317573</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>193.2530095289825</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>467.060185960837</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>447.1194396468851</v>
+        <v>363.6814974206214</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37558,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>753.0835281949618</v>
       </c>
       <c r="N39" t="n">
-        <v>732.2474112493936</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>439.6064255770897</v>
+        <v>515.1617056798818</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
@@ -37874,13 +37876,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>503.1659231463255</v>
       </c>
       <c r="N45" t="n">
-        <v>503.8680060319751</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2160497.321559013</v>
+        <v>2153480.306667301</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531733.8719789208</v>
+        <v>596789.3800815081</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>9.702759483543995</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>171.789906059415</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>234.5419316221696</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>30.19289144459984</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>161.2000559090907</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>49.12877922542958</v>
+        <v>25.31590541686237</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>356.597929661531</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>156.2821086541851</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.9486844368455</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686263</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>109.6778012403081</v>
       </c>
       <c r="G13" t="n">
-        <v>122.2151751544596</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.9575509524584</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532057</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.2051601944693</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532057</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>220.2803460863051</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>25.80452873728772</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.2425576766703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338504</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>58.40168825977442</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>9.789032224666689</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2851,10 +2851,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>64.77871132208493</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.45300511654406</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>174.1469912450193</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>107.1555119083925</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>234.5175081001676</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2687.348323863127</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2687.348323863127</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2687.348323863127</v>
       </c>
       <c r="U2" t="n">
-        <v>2468.595243912943</v>
+        <v>2687.348323863127</v>
       </c>
       <c r="V2" t="n">
-        <v>2137.532356569372</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="W2" t="n">
-        <v>1784.763701299258</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.763701299258</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.624369323446</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>2636.818952052699</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>2467.882769124792</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>247.5125998356232</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>247.5125998356232</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>247.5125998356232</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>247.5125998356232</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.5125998356232</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.651220872162</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2335.588333528591</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="X5" t="n">
-        <v>1795.460519632919</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1405.321187657107</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.0275768541695</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>444.0275768541695</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>444.0275768541695</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>296.1144832717764</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>149.2245357738661</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.823007113086</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.860490172674</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>978.5947915659237</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>978.5947915659237</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>567.6088867763162</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2363.110887520085</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.422847177208</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>581.5921817905153</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,10 +5038,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.905903778934</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>506.0324822735078</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562259</v>
+        <v>506.0324822735078</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438901</v>
+        <v>355.915842861172</v>
       </c>
       <c r="E13" t="n">
-        <v>629.509310661497</v>
+        <v>208.0027492787789</v>
       </c>
       <c r="F13" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5296,28 +5296,28 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M15" t="n">
-        <v>1387.227105931296</v>
+        <v>629.3975440735805</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.782055165496</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5494,34 +5494,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5548,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>904.39166832551</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M18" t="n">
-        <v>1224.726987855212</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N18" t="n">
-        <v>1785.124911043099</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2339.460577419558</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1190.664237630365</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>966.8788224198709</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>966.8788224198709</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>966.8788224198709</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>677.4616523829103</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5779,19 +5779,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>618.8589595388348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1942790685366</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.071707946799</v>
+        <v>1221.963989254139</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3628.091576844583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4103.568644194</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>3848.884155988113</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>3848.884155988113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3848.884155988113</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>3628.091576844583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>381.3300194168664</v>
       </c>
       <c r="M24" t="n">
-        <v>618.8589595388348</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022017</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028587</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655744</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286139</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305965</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6244,16 +6244,16 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>1009.893253135416</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1778.261399527878</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1439.9246662551</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1439.9246662551</v>
+        <v>1265.242944009362</v>
       </c>
       <c r="V28" t="n">
-        <v>1185.240178049213</v>
+        <v>1265.242944009362</v>
       </c>
       <c r="W28" t="n">
-        <v>895.8230080122524</v>
+        <v>975.825773972401</v>
       </c>
       <c r="X28" t="n">
-        <v>667.8334571142351</v>
+        <v>747.8362230743836</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.040877970705</v>
+        <v>527.0436439308535</v>
       </c>
     </row>
     <row r="29">
@@ -6463,13 +6463,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>711.1141612171746</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1515.525739481325</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O30" t="n">
-        <v>2184.989500783985</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>330.825454879945</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6621,7 +6621,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>330.825454879945</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>330.825454879945</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>330.825454879945</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6724,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>836.471721275012</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1298.861305376241</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6916,34 +6916,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,34 +6952,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.32563221405</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N36" t="n">
-        <v>1288.32563221405</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O36" t="n">
-        <v>1957.789393516709</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>2033.878325127062</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N39" t="n">
-        <v>2033.878325127062</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O39" t="n">
-        <v>2033.878325127062</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7420,19 +7420,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>773.5483822357312</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1541.916528628193</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N42" t="n">
-        <v>1886.437184265811</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O42" t="n">
-        <v>2135.190598349773</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>355.5716216891797</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>355.5716216891797</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>205.4549822768439</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>205.4549822768439</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>205.4549822768439</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>758.0126656629495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>537.2200865194194</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L45" t="n">
-        <v>388.8958536704856</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>887.0301175853479</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N45" t="n">
-        <v>1691.441695849499</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2360.905457152158</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>232.8639348725807</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9734,13 +9734,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>178.3913131276564</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>370.8623401849281</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>156.5880824890967</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849281</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,10 +11144,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849281</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.74324678262319</v>
       </c>
       <c r="G13" t="n">
-        <v>44.27839330891794</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>8.463497070472869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>2.715649789133977</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>65.95700631227223</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>199.9051266517494</v>
       </c>
       <c r="Y25" t="n">
-        <v>61.3420956754245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.56266414401837</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>276.4483201739106</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>102.4681097765429</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>116.0405633468335</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>112.090361153558</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>59.33805655498509</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>51.71984429840975</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.93142296</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
-      </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="H2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
@@ -26340,22 +26340,22 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="M2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="N2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590218</v>
       </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590216</v>
-      </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
     </row>
     <row r="3">
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26435,31 +26435,31 @@
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758697</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575774</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467891</v>
+        <v>-278208.9460467887</v>
       </c>
       <c r="C6" t="n">
+        <v>311758.9331677556</v>
+      </c>
+      <c r="D6" t="n">
         <v>311758.9331677558</v>
       </c>
-      <c r="D6" t="n">
-        <v>311758.9331677557</v>
-      </c>
       <c r="E6" t="n">
-        <v>-109597.378457167</v>
+        <v>-110571.9697168887</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600076</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.6580197292</v>
+        <v>414588.0667600074</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.658019729</v>
+        <v>414588.0667600076</v>
       </c>
       <c r="I6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600074</v>
       </c>
       <c r="J6" t="n">
-        <v>239139.4388271365</v>
+        <v>238164.8475674145</v>
       </c>
       <c r="K6" t="n">
-        <v>415562.6580197293</v>
+        <v>414588.0667600073</v>
       </c>
       <c r="L6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600073</v>
       </c>
       <c r="M6" t="n">
-        <v>280761.642785892</v>
+        <v>279787.0515261703</v>
       </c>
       <c r="N6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600075</v>
       </c>
       <c r="O6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600076</v>
       </c>
       <c r="P6" t="n">
-        <v>415562.6580197291</v>
+        <v>414588.0667600072</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.77564309126772</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>79.43426144887428</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060691</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>51.73994261980809</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>24.28551113021187</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>208.5310447693784</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>118.1810230336213</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>57.18624035926399</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>171.4701498159498</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>96.19685451317343</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352322</v>
       </c>
     </row>
     <row r="11">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-5.318429660529039e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31147,10 +31147,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134866</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>138.0254025558048</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>225.0728617982307</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,10 +32074,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32086,22 +32086,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>213.98498291272</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9841349460419</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,34 +32311,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>102.4943942860903</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32563,16 +32563,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>422.5825992329737</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>330.1172231204807</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>54.69678998811253</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>177.0909998440047</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>106.5672573837439</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33049,7 +33049,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,34 +33259,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>278.8982329460875</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>143.4891561328554</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,34 +33970,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>429.5124983669802</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>282.8757401562968</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>48.48571443651659</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>179.5948933183439</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34471,13 +34471,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9209869390935</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35500,10 +35500,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>486.026064816025</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>476.3389366305158</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>537.5560127407016</v>
       </c>
       <c r="N15" t="n">
-        <v>742.9847972062621</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>566.0585082705936</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>286.9827555116972</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>770.583261493194</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>581.3832979527658</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>286.9827555116975</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>525.091662104225</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>338.8532229073289</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>47.04960104432308</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>144.9238255317573</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>467.060185960837</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>228.7283062629098</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>363.6814974206214</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>753.0835281949618</v>
+        <v>228.7283062629098</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>515.1617056798818</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629098</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>175.1095124747362</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>503.1659231463255</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2153480.306667301</v>
+        <v>2158419.569516334</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>596789.3800815081</v>
+        <v>553789.4760175564</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>174.8114769293678</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>9.702759483543995</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>30.19289144459984</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.31590541686237</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.1478855987996</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>25.77351865445982</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>156.2821086541851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686263</v>
+        <v>171.7498680634319</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>109.6778012403081</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>183.2820249438501</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>24.82250368547712</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,13 +1821,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532057</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274091</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>210.968521252134</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>25.80452873728772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338504</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>1.33010159473919</v>
       </c>
       <c r="U28" t="n">
-        <v>9.789032224666689</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>64.77871132208493</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>146.1854691670925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U40" t="n">
-        <v>174.1469912450193</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>107.1555119083925</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>234.5175081001676</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>1194.68376869814</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>1194.68376869814</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1194.68376869814</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>808.8955160998953</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>397.9096113102877</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>383.9862072488787</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2687.348323863127</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2687.348323863127</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2687.348323863127</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2687.348323863127</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2356.285436519557</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2356.285436519557</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.819678258477</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.680346282665</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4427,25 +4427,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4467,13 +4467,13 @@
         <v>2636.818952052699</v>
       </c>
       <c r="C4" t="n">
-        <v>2467.882769124792</v>
+        <v>2467.882769124793</v>
       </c>
       <c r="D4" t="n">
-        <v>2317.766129712456</v>
+        <v>2317.766129712457</v>
       </c>
       <c r="E4" t="n">
-        <v>2169.853036130063</v>
+        <v>2169.853036130064</v>
       </c>
       <c r="F4" t="n">
         <v>2022.963088632153</v>
@@ -4494,46 +4494,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2666.651220872162</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2666.651220872162</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2666.651220872162</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U5" t="n">
-        <v>2666.651220872162</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>2335.588333528591</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.819678258477</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>609.3508327416171</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>240.3883158012054</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>240.3883158012054</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>240.3883158012054</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>233.4428150520019</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="V8" t="n">
-        <v>2363.110887520085</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.34223224997</v>
+        <v>1759.55576304263</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.34223224997</v>
+        <v>1386.090004781551</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>995.9506728057388</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,22 +5053,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5108,22 +5108,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L12" t="n">
         <v>327.180197328635</v>
@@ -5135,7 +5135,7 @@
         <v>1899.959921985247</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2148.713336069209</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0324822735078</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0324822735078</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>355.915842861172</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>208.0027492787789</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1313.782912028761</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1024.654273242319</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>1024.654273242319</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150552</v>
+        <v>1024.654273242319</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170379</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735078</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>629.3975440735805</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.809122337731</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>736.1461909267684</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527475</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N18" t="n">
         <v>1669.996816116898</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419558</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,19 +5764,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,22 +5828,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899877</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254139</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
         <v>1797.533454227377</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,16 +6065,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>381.3300194168664</v>
+        <v>381.3300194168667</v>
       </c>
       <c r="M24" t="n">
         <v>1149.698165809328</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570741</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>820.5263570570741</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X25" t="n">
-        <v>794.4611765143592</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y25" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,52 +6208,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.0436439308535</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C28" t="n">
-        <v>527.0436439308535</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1386.497630155345</v>
       </c>
       <c r="U28" t="n">
-        <v>1265.242944009362</v>
+        <v>1097.368991368903</v>
       </c>
       <c r="V28" t="n">
-        <v>1265.242944009362</v>
+        <v>1097.368991368903</v>
       </c>
       <c r="W28" t="n">
-        <v>975.825773972401</v>
+        <v>807.9518213319425</v>
       </c>
       <c r="X28" t="n">
-        <v>747.8362230743836</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.0436439308535</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
         <v>2103.272883640391</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227924</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>620.2426249169056</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>330.825454879945</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>675.0071030383447</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,31 +7004,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
         <v>1797.533454227377</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7262,10 +7262,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
         <v>1797.533454227377</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U40" t="n">
-        <v>1211.935115357083</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>957.2506271511957</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>667.8334571142351</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>667.8334571142351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7420,19 +7420,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7499,10 +7499,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>355.5716216891797</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>355.5716216891797</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>205.4549822768439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>205.4549822768439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>205.4549822768439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609669</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>986.0022165609669</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>758.0126656629495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>537.2200865194194</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,28 +7715,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>436.896710962637</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111987</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1038.244483529058</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>783.5599953231707</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>494.1428252862101</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9488,7 +9488,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>178.3913131276564</v>
+        <v>346.3925274229723</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849281</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849281</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849281</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>35.74324678262319</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,16 +23469,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>38.26553611453912</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>155.0094764964602</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338525</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338523</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>199.9051266517494</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.2174594636501</v>
       </c>
       <c r="U28" t="n">
-        <v>276.4483201739106</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>102.4681097765429</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>140.3375291694985</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U40" t="n">
-        <v>112.090361153558</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>59.33805655498509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>51.71984429840975</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.8060970315905</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.93142296</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117842</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590216</v>
@@ -26328,22 +26328,22 @@
         <v>508337.7776590218</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590218</v>
       </c>
       <c r="I2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="L2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590215</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590217</v>
@@ -26355,7 +26355,7 @@
         <v>508337.7776590218</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575774</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26450,16 +26450,16 @@
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467887</v>
+        <v>-278208.946046789</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677556</v>
+        <v>311758.9331677557</v>
       </c>
       <c r="D6" t="n">
         <v>311758.9331677558</v>
       </c>
       <c r="E6" t="n">
-        <v>-110571.9697168887</v>
+        <v>-109694.8375831388</v>
       </c>
       <c r="F6" t="n">
-        <v>414588.0667600076</v>
+        <v>415465.1988937572</v>
       </c>
       <c r="G6" t="n">
-        <v>414588.0667600074</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="H6" t="n">
-        <v>414588.0667600076</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="I6" t="n">
-        <v>414588.0667600074</v>
+        <v>415465.198893757</v>
       </c>
       <c r="J6" t="n">
-        <v>238164.8475674145</v>
+        <v>239041.9797011637</v>
       </c>
       <c r="K6" t="n">
-        <v>414588.0667600073</v>
+        <v>415465.1988937568</v>
       </c>
       <c r="L6" t="n">
-        <v>414588.0667600073</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="M6" t="n">
-        <v>279787.0515261703</v>
+        <v>280664.1836599201</v>
       </c>
       <c r="N6" t="n">
-        <v>414588.0667600075</v>
+        <v>415465.198893757</v>
       </c>
       <c r="O6" t="n">
-        <v>414588.0667600076</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="P6" t="n">
-        <v>414588.0667600072</v>
+        <v>415465.1988937568</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>149.1112958349894</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.77564309126772</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>24.28551113021187</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>155.9865295915269</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>141.9938968421885</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>6.99765335121927</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>388.0106513663352</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>171.4701498159498</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352322</v>
+        <v>46.83478528866286</v>
       </c>
     </row>
     <row r="11">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-5.318429660529039e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31147,10 +31147,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31387,7 +31387,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31533,28 +31533,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>11.76595806653231</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478008</v>
@@ -31615,7 +31615,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31624,19 +31624,19 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,16 +31676,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,19 +31694,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31849,16 +31849,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>225.0728617982307</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>225.0728617982313</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32086,28 +32086,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>213.98498291272</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32323,16 +32323,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860903</v>
+        <v>102.4943942860912</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32563,16 +32563,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>330.1172231204807</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32794,16 +32794,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>54.69678998811253</v>
+        <v>54.69678998811281</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508801</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,19 +33259,19 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33280,7 +33280,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,22 +33496,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508801</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,7 +33733,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -33748,16 +33748,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,7 +33970,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33985,16 +33985,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,7 +34207,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -34222,16 +34222,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,40 +34362,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,22 +34444,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>48.48571443651659</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35190,7 +35190,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713858</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>476.3389366305158</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>409.5612230238382</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>537.5560127407016</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116972</v>
+        <v>286.9827555116981</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>581.3832979527658</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>286.9827555116975</v>
+        <v>286.9827555116978</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111003</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>47.04960104432308</v>
+        <v>215.050815339639</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111003</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629098</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629098</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629098</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>175.1095124747362</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
